--- a/biology/Zoologie/Muhtar_Başoğlu/Muhtar_Başoğlu.xlsx
+++ b/biology/Zoologie/Muhtar_Başoğlu/Muhtar_Başoğlu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muhtar_Ba%C5%9Fo%C4%9Flu</t>
+          <t>Muhtar_Başoğlu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Muhtar Başoğlu est un herpétologiste turc, né le 6 avril 1913 à Ödemiş près d'İzmir et mort le 21 février 1981 à Karşıyaka près d'İzmir.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muhtar_Ba%C5%9Fo%C4%9Flu</t>
+          <t>Muhtar_Başoğlu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il obtient son diplôme à l’université d’Istanbul en 1936 et travaille comme assistant à cette même université. Il y obtient son doctorat en 1942 sous la direction de l’Allemand Curt Kosswig (1903-1982). Aux côtés de Walter Hellmich (1906-1974), il étudie la faune de l’Anatolie. En 1961, il obtient la chaire de taxinomie zoologique de l’université de Bornova-Izmir. Il y fonde le Centre herpétologique turque et forme de nombreux spécialistes de ce pays comme Mehmet Kutsay Atatür (1947-) ou Neclâ Özeti (1932-).
 Parmi ses nombreuses publications sur l’herpétofaune turque, il faut citer Amphibians of Turkey (1973, cosigné avec Özeti) et Repiles of Turkey (1977 et 1980, cosigné avec İbrahim Baran (1940-), deux volumes).
